--- a/New Excel Sheet Google maps.xlsx
+++ b/New Excel Sheet Google maps.xlsx
@@ -18,15 +18,73 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t>GCID</t>
+  </si>
+  <si>
+    <t>Business Category Name</t>
+  </si>
+  <si>
+    <t>Agricultural association</t>
+  </si>
+  <si>
+    <t>Agricultural cooperative</t>
+  </si>
+  <si>
+    <t>Agricultural engineer</t>
+  </si>
+  <si>
+    <t>Agricultural high school</t>
+  </si>
+  <si>
+    <t>Agricultural machinery manufacturer</t>
+  </si>
+  <si>
+    <t>Agricultural organization</t>
+  </si>
+  <si>
+    <t>Agricultural product wholesaler</t>
+  </si>
+  <si>
+    <t>Agricultural production</t>
+  </si>
+  <si>
+    <t>Agricultural service</t>
+  </si>
+  <si>
+    <t>Agricultural service supply agency</t>
+  </si>
+  <si>
+    <t>Agriculture cooperative</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +95,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,12 +103,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -331,12 +410,83 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>